--- a/docs/ST1/ST1_06.08.24_output.xlsx
+++ b/docs/ST1/ST1_06.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>quity</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,6 +533,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -540,22 +546,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1730732724.8308303</t>
+          <t>1731621319.776319</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1730732726.230654</t>
+          <t>1731621321.114891</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732724.8308303.png</t>
+          <t>./test_images/SBER1731621319.776319.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732726.230654.png</t>
+          <t>./test_images/SBER1731621321.114891.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,6 +582,9 @@
       </c>
       <c r="K3" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -589,22 +598,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1730732726.946209</t>
+          <t>1731621321.8130689</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1730732733.2179465</t>
+          <t>1731621327.9949894</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732726.946209.png</t>
+          <t>./test_images/SBER1731621321.8130689.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732733.2179465.png</t>
+          <t>./test_images/SBER1731621327.9949894.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -625,6 +634,9 @@
       </c>
       <c r="K4" t="n">
         <v>-0.8100000000000023</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +650,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1730732739.3189738</t>
+          <t>1731621334.404082</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1730732739.9431207</t>
+          <t>1731621335.043479</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732739.3189738.png</t>
+          <t>./test_images/SBER1731621334.404082.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732739.9431207.png</t>
+          <t>./test_images/SBER1731621335.043479.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -674,6 +686,9 @@
       </c>
       <c r="K5" t="n">
         <v>0.7400000000000091</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -687,22 +702,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1730732740.807306</t>
+          <t>1731621335.942341</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1730732741.7791579</t>
+          <t>1731621336.9526587</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732740.807306.png</t>
+          <t>./test_images/SBER1731621335.942341.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732741.7791579.png</t>
+          <t>./test_images/SBER1731621336.9526587.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -723,6 +738,9 @@
       </c>
       <c r="K6" t="n">
         <v>0.04000000000002046</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -736,22 +754,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1730732741.795084</t>
+          <t>1731621336.9685872</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1730732744.8027792</t>
+          <t>1731621340.104906</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732741.795084.png</t>
+          <t>./test_images/SBER1731621336.9685872.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732744.8027792.png</t>
+          <t>./test_images/SBER1731621340.104906.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -772,6 +790,9 @@
       </c>
       <c r="K7" t="n">
         <v>-0.589999999999975</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="8">
@@ -785,22 +806,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1730732744.8187375</t>
+          <t>1731621340.120863</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1730732746.0060892</t>
+          <t>1731621341.354936</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732744.8187375.png</t>
+          <t>./test_images/SBER1731621340.120863.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732746.0060892.png</t>
+          <t>./test_images/SBER1731621341.354936.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -821,6 +842,9 @@
       </c>
       <c r="K8" t="n">
         <v>-0.8199999999999932</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="9">
@@ -834,22 +858,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1730732746.0220187</t>
+          <t>1731621341.3708613</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1730732746.641391</t>
+          <t>1731621342.0104246</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732746.0220187.png</t>
+          <t>./test_images/SBER1731621341.3708613.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732746.641391.png</t>
+          <t>./test_images/SBER1731621342.0104246.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -870,6 +894,9 @@
       </c>
       <c r="K9" t="n">
         <v>0.7599999999999909</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
@@ -883,22 +910,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1730732748.202243</t>
+          <t>1731621343.8189654</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1730732750.182293</t>
+          <t>1731621345.833779</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732748.202243.png</t>
+          <t>./test_images/SBER1731621343.8189654.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732750.182293.png</t>
+          <t>./test_images/SBER1731621345.833779.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -919,6 +946,9 @@
       </c>
       <c r="K10" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -932,22 +962,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1730732750.1989353</t>
+          <t>1731621345.8497052</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1730732751.5793815</t>
+          <t>1731621347.3911324</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732750.1989353.png</t>
+          <t>./test_images/SBER1731621345.8497052.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732751.5793815.png</t>
+          <t>./test_images/SBER1731621347.3911324.png</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -968,6 +998,9 @@
       </c>
       <c r="K11" t="n">
         <v>0.339999999999975</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
@@ -981,22 +1014,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1730732752.8524938</t>
+          <t>1731621348.5747175</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1730732755.0837977</t>
+          <t>1731621350.9306705</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732752.8524938.png</t>
+          <t>./test_images/SBER1731621348.5747175.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730732755.0837977.png</t>
+          <t>./test_images/SBER1731621350.9306705.png</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1017,6 +1050,9 @@
       </c>
       <c r="K12" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
@@ -1030,22 +1066,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1730732758.3966272</t>
+          <t>1731621354.2292497</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1730732763.51735</t>
+          <t>1731621359.4701078</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732758.3966272.png</t>
+          <t>./test_images/GAZP1731621354.2292497.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732763.51735.png</t>
+          <t>./test_images/GAZP1731621359.4701078.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1066,6 +1102,9 @@
       </c>
       <c r="K13" t="n">
         <v>-0.5699999999999932</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="14">
@@ -1079,22 +1118,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1730732763.5333066</t>
+          <t>1731621359.4860382</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1730732765.450469</t>
+          <t>1731621361.458823</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732763.5333066.png</t>
+          <t>./test_images/GAZP1731621359.4860382.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732765.450469.png</t>
+          <t>./test_images/GAZP1731621361.458823.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1115,6 +1154,9 @@
       </c>
       <c r="K14" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="15">
@@ -1128,22 +1170,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1730732765.4671936</t>
+          <t>1731621361.4757488</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1730732766.5298786</t>
+          <t>1731621362.641295</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732765.4671936.png</t>
+          <t>./test_images/GAZP1731621361.4757488.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732766.5298786.png</t>
+          <t>./test_images/GAZP1731621362.641295.png</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1164,6 +1206,9 @@
       </c>
       <c r="K15" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="16">
@@ -1177,22 +1222,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1730732767.0206869</t>
+          <t>1731621363.1437542</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1730732769.9461079</t>
+          <t>1731621366.3058074</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732767.0206869.png</t>
+          <t>./test_images/GAZP1731621363.1437542.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732769.9461079.png</t>
+          <t>./test_images/GAZP1731621366.3058074.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1213,6 +1258,9 @@
       </c>
       <c r="K16" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="17">
@@ -1226,22 +1274,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1730732769.9630628</t>
+          <t>1731621366.3227618</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1730732770.7586718</t>
+          <t>1731621367.3116992</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732769.9630628.png</t>
+          <t>./test_images/GAZP1731621366.3227618.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732770.7586718.png</t>
+          <t>./test_images/GAZP1731621367.3116992.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1262,6 +1310,9 @@
       </c>
       <c r="K17" t="n">
         <v>0.6099999999999852</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="18">
@@ -1275,22 +1326,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1730732771.3404405</t>
+          <t>1731621367.9848979</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1730732771.8118806</t>
+          <t>1731621368.437454</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732771.3404405.png</t>
+          <t>./test_images/GAZP1731621367.9848979.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732771.8118806.png</t>
+          <t>./test_images/GAZP1731621368.437454.png</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1311,6 +1362,9 @@
       </c>
       <c r="K18" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="19">
@@ -1324,22 +1378,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1730732772.850889</t>
+          <t>1731621369.4687135</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1730732773.7130527</t>
+          <t>1731621370.5254133</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732772.850889.png</t>
+          <t>./test_images/GAZP1731621369.4687135.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732773.7130527.png</t>
+          <t>./test_images/GAZP1731621370.5254133.png</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1360,6 +1414,9 @@
       </c>
       <c r="K19" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="20">
@@ -1373,22 +1430,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1730732775.0178404</t>
+          <t>1731621371.9820147</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1730732775.528731</t>
+          <t>1731621372.393234</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732775.0178404.png</t>
+          <t>./test_images/GAZP1731621371.9820147.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732775.528731.png</t>
+          <t>./test_images/GAZP1731621372.393234.png</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1409,6 +1466,9 @@
       </c>
       <c r="K20" t="n">
         <v>0.3200000000000074</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="21">
@@ -1422,22 +1482,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1730732776.8947337</t>
+          <t>1731621373.923766</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1730732778.3767266</t>
+          <t>1731621375.5656612</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732776.8947337.png</t>
+          <t>./test_images/GAZP1731621373.923766.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732778.3767266.png</t>
+          <t>./test_images/GAZP1731621375.5656612.png</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1458,6 +1518,9 @@
       </c>
       <c r="K21" t="n">
         <v>-0.4099999999999966</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="22">
@@ -1471,22 +1534,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1730732778.3936539</t>
+          <t>1731621375.5824509</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1730732787.052639</t>
+          <t>1731621384.6396863</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732778.3936539.png</t>
+          <t>./test_images/GAZP1731621375.5824509.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730732787.052639.png</t>
+          <t>./test_images/GAZP1731621384.6396863.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1507,6 +1570,9 @@
       </c>
       <c r="K22" t="n">
         <v>0.5900000000000034</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="23">
@@ -1520,22 +1586,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1730732789.558354</t>
+          <t>1731621387.3686836</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1730732790.6903787</t>
+          <t>1731621388.5440488</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730732789.558354.png</t>
+          <t>./test_images/LKOH1731621387.3686836.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730732790.6903787.png</t>
+          <t>./test_images/LKOH1731621388.5440488.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1556,6 +1622,9 @@
       </c>
       <c r="K23" t="n">
         <v>10</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="24">
@@ -1569,22 +1638,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1730732799.3459063</t>
+          <t>1731621397.741771</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1730732800.8781507</t>
+          <t>1731621399.4563544</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730732799.3459063.png</t>
+          <t>./test_images/LKOH1731621397.741771.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730732800.8781507.png</t>
+          <t>./test_images/LKOH1731621399.4563544.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1605,6 +1674,9 @@
       </c>
       <c r="K24" t="n">
         <v>11</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="25">
@@ -1618,22 +1690,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730732807.6226838</t>
+          <t>1731621406.6014566</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1730732814.570663</t>
+          <t>1731621414.1448958</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730732807.6226838.png</t>
+          <t>./test_images/LKOH1731621406.6014566.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730732814.570663.png</t>
+          <t>./test_images/LKOH1731621414.1448958.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1654,6 +1726,9 @@
       </c>
       <c r="K25" t="n">
         <v>-49.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.7799999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1667,22 +1742,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730732822.0086648</t>
+          <t>1731621422.3057704</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1730732823.1011744</t>
+          <t>1731621423.3649943</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730732822.0086648.png</t>
+          <t>./test_images/ROSN1731621422.3057704.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730732823.1011744.png</t>
+          <t>./test_images/ROSN1731621423.3649943.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1703,6 +1778,9 @@
       </c>
       <c r="K26" t="n">
         <v>2.949999999999989</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="27">
@@ -1716,22 +1794,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730732823.649589</t>
+          <t>1731621423.910606</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1730732825.0800703</t>
+          <t>1731621425.3336723</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730732823.649589.png</t>
+          <t>./test_images/ROSN1731621423.910606.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730732825.0800703.png</t>
+          <t>./test_images/ROSN1731621425.3336723.png</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1752,6 +1830,9 @@
       </c>
       <c r="K27" t="n">
         <v>1.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="28">
@@ -1765,22 +1846,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730732827.9192514</t>
+          <t>1731621428.1364722</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1730732829.3084834</t>
+          <t>1731621429.4717708</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730732827.9192514.png</t>
+          <t>./test_images/ROSN1731621428.1364722.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730732829.3084834.png</t>
+          <t>./test_images/ROSN1731621429.4717708.png</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1801,6 +1882,9 @@
       </c>
       <c r="K28" t="n">
         <v>1.949999999999989</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="29">
@@ -1814,22 +1898,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1730732840.009976</t>
+          <t>1731621440.1752722</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1730732840.8340876</t>
+          <t>1731621440.9580703</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730732840.009976.png</t>
+          <t>./test_images/ROSN1731621440.1752722.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730732840.8340876.png</t>
+          <t>./test_images/ROSN1731621440.9580703.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1850,6 +1934,9 @@
       </c>
       <c r="K29" t="n">
         <v>1.800000000000011</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="30">
@@ -1863,22 +1950,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1730732840.850043</t>
+          <t>1731621440.975035</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1730732846.97104</t>
+          <t>1731621447.0436788</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730732840.850043.png</t>
+          <t>./test_images/ROSN1731621440.975035.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730732846.97104.png</t>
+          <t>./test_images/ROSN1731621447.0436788.png</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1899,6 +1986,9 @@
       </c>
       <c r="K30" t="n">
         <v>1.75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="31">
@@ -1912,22 +2002,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1730732850.118987</t>
+          <t>1731621450.2246988</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1730732854.2270236</t>
+          <t>1731621454.531096</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732850.118987.png</t>
+          <t>./test_images/MOEX1731621450.2246988.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732854.2270236.png</t>
+          <t>./test_images/MOEX1731621454.531096.png</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1948,6 +2038,9 @@
       </c>
       <c r="K31" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="32">
@@ -1961,22 +2054,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1730732854.2429497</t>
+          <t>1731621454.547054</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1730732856.405984</t>
+          <t>1731621456.8238766</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732854.2429497.png</t>
+          <t>./test_images/MOEX1731621454.547054.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732856.405984.png</t>
+          <t>./test_images/MOEX1731621456.8238766.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1997,6 +2090,9 @@
       </c>
       <c r="K32" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="33">
@@ -2010,22 +2106,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1730732857.2114246</t>
+          <t>1731621457.801114</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1730732862.7983198</t>
+          <t>1731621463.8761058</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732857.2114246.png</t>
+          <t>./test_images/MOEX1731621457.801114.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732862.7983198.png</t>
+          <t>./test_images/MOEX1731621463.8761058.png</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2046,6 +2142,9 @@
       </c>
       <c r="K33" t="n">
         <v>-1.47999999999999</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="34">
@@ -2059,22 +2158,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1730732862.814249</t>
+          <t>1731621463.8921502</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1730732865.30595</t>
+          <t>1731621466.5020056</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732862.814249.png</t>
+          <t>./test_images/MOEX1731621463.8921502.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732865.30595.png</t>
+          <t>./test_images/MOEX1731621466.5020056.png</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2095,6 +2194,9 @@
       </c>
       <c r="K34" t="n">
         <v>-1.439999999999998</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="35">
@@ -2108,22 +2210,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1730732865.3219368</t>
+          <t>1731621466.5188298</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1730732865.9073315</t>
+          <t>1731621467.1156929</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732865.3219368.png</t>
+          <t>./test_images/MOEX1731621466.5188298.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732865.9073315.png</t>
+          <t>./test_images/MOEX1731621467.1156929.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2144,6 +2246,9 @@
       </c>
       <c r="K35" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="36">
@@ -2157,22 +2262,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1730732865.9232895</t>
+          <t>1731621467.1316779</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1730732867.0967119</t>
+          <t>1731621468.360371</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732865.9232895.png</t>
+          <t>./test_images/MOEX1731621467.1316779.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732867.0967119.png</t>
+          <t>./test_images/MOEX1731621468.360371.png</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2193,6 +2298,9 @@
       </c>
       <c r="K36" t="n">
         <v>-0.5099999999999909</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="37">
@@ -2206,22 +2314,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1730732867.1126695</t>
+          <t>1731621468.3763292</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1730732868.0510137</t>
+          <t>1731621469.426906</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732867.1126695.png</t>
+          <t>./test_images/MOEX1731621468.3763292.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732868.0510137.png</t>
+          <t>./test_images/MOEX1731621469.426906.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2242,6 +2350,9 @@
       </c>
       <c r="K37" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="38">
@@ -2255,22 +2366,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1730732868.0669432</t>
+          <t>1731621469.4428627</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1730732869.795845</t>
+          <t>1731621471.20808</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732868.0669432.png</t>
+          <t>./test_images/MOEX1731621469.4428627.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732869.795845.png</t>
+          <t>./test_images/MOEX1731621471.20808.png</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2291,6 +2402,9 @@
       </c>
       <c r="K38" t="n">
         <v>0.7299999999999898</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="39">
@@ -2304,22 +2418,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1730732870.4170163</t>
+          <t>1731621471.8733397</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1730732872.38495</t>
+          <t>1731621473.9619834</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732870.4170163.png</t>
+          <t>./test_images/MOEX1731621471.8733397.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732872.38495.png</t>
+          <t>./test_images/MOEX1731621473.9619834.png</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2340,6 +2454,9 @@
       </c>
       <c r="K39" t="n">
         <v>1.099999999999994</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="40">
@@ -2353,13 +2470,13 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1730732872.6512654</t>
+          <t>1731621474.2575755</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730732872.6512654.png</t>
+          <t>./test_images/MOEX1731621474.2575755.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2376,8 +2493,15 @@
       <c r="I40" t="n">
         <v>226</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>226</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2390,22 +2514,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1730732893.5532763</t>
+          <t>1731621496.342171</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1730732894.1466646</t>
+          <t>1731621496.9754572</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732893.5532763.png</t>
+          <t>./test_images/NVTK1731621496.342171.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732894.1466646.png</t>
+          <t>./test_images/NVTK1731621496.9754572.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2426,6 +2550,9 @@
       </c>
       <c r="K41" t="n">
         <v>3.800000000000068</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="42">
@@ -2439,22 +2566,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1730732894.9511886</t>
+          <t>1731621497.829302</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1730732897.3932188</t>
+          <t>1731621500.4772227</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732894.9511886.png</t>
+          <t>./test_images/NVTK1731621497.829302.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732897.3932188.png</t>
+          <t>./test_images/NVTK1731621500.4772227.png</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2475,6 +2602,9 @@
       </c>
       <c r="K42" t="n">
         <v>1.199999999999932</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="43">
@@ -2488,22 +2618,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1730732897.410176</t>
+          <t>1731621500.4941494</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1730732897.8785484</t>
+          <t>1731621500.9978435</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732897.410176.png</t>
+          <t>./test_images/NVTK1731621500.4941494.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732897.8785484.png</t>
+          <t>./test_images/NVTK1731621500.9978435.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2524,6 +2654,9 @@
       </c>
       <c r="K43" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="44">
@@ -2537,22 +2670,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1730732898.57067</t>
+          <t>1731621501.75517</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1730732898.9721587</t>
+          <t>1731621502.1790054</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732898.57067.png</t>
+          <t>./test_images/NVTK1731621501.75517.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732898.9721587.png</t>
+          <t>./test_images/NVTK1731621502.1790054.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2573,6 +2706,9 @@
       </c>
       <c r="K44" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="45">
@@ -2586,22 +2722,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1730732898.9891222</t>
+          <t>1731621502.1959584</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1730732901.2043571</t>
+          <t>1731621504.7117102</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732898.9891222.png</t>
+          <t>./test_images/NVTK1731621502.1959584.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732901.2043571.png</t>
+          <t>./test_images/NVTK1731621504.7117102.png</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2622,6 +2758,9 @@
       </c>
       <c r="K45" t="n">
         <v>-0.5999999999999091</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="46">
@@ -2635,22 +2774,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1730732901.2222817</t>
+          <t>1731621504.7296345</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1730732903.894606</t>
+          <t>1731621507.4435842</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732901.2222817.png</t>
+          <t>./test_images/NVTK1731621504.7296345.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732903.894606.png</t>
+          <t>./test_images/NVTK1731621507.4435842.png</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2671,6 +2810,9 @@
       </c>
       <c r="K46" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="47">
@@ -2684,22 +2826,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1730732903.911562</t>
+          <t>1731621507.461534</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1730732904.7792418</t>
+          <t>1731621508.4361959</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732903.911562.png</t>
+          <t>./test_images/NVTK1731621507.461534.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732904.7792418.png</t>
+          <t>./test_images/NVTK1731621508.4361959.png</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2720,6 +2862,9 @@
       </c>
       <c r="K47" t="n">
         <v>-1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="48">
@@ -2733,13 +2878,13 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1730732904.7971818</t>
+          <t>1731621508.4537137</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730732904.7971818.png</t>
+          <t>./test_images/NVTK1731621508.4537137.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2756,8 +2901,15 @@
       <c r="I48" t="n">
         <v>1005.4</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1005.4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2770,22 +2922,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1730732911.759132</t>
+          <t>1731621515.554606</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1730732912.2667773</t>
+          <t>1731621516.0814555</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730732911.759132.png</t>
+          <t>./test_images/CNY1731621515.554606.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730732912.2667773.png</t>
+          <t>./test_images/CNY1731621516.0814555.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2806,6 +2958,9 @@
       </c>
       <c r="K49" t="n">
         <v>0.01200000000000045</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="50">
@@ -2819,22 +2974,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1730732912.2827344</t>
+          <t>1731621516.09744</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1730732914.6448505</t>
+          <t>1731621518.8355598</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730732912.2827344.png</t>
+          <t>./test_images/CNY1731621516.09744.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730732914.6448505.png</t>
+          <t>./test_images/CNY1731621518.8355598.png</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2855,6 +3010,9 @@
       </c>
       <c r="K50" t="n">
         <v>-0.01400000000000112</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="51">
@@ -2868,22 +3026,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1730732914.6618056</t>
+          <t>1731621518.8525145</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1730732915.0005448</t>
+          <t>1731621519.2304547</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730732914.6618056.png</t>
+          <t>./test_images/CNY1731621518.8525145.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730732915.0005448.png</t>
+          <t>./test_images/CNY1731621519.2304547.png</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2904,6 +3062,9 @@
       </c>
       <c r="K51" t="n">
         <v>0.01499999999999879</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="52">
@@ -2917,22 +3078,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1730732915.72417</t>
+          <t>1731621519.9725947</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1730732919.927941</t>
+          <t>1731621524.5751882</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730732915.72417.png</t>
+          <t>./test_images/CNY1731621519.9725947.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730732919.927941.png</t>
+          <t>./test_images/CNY1731621524.5751882.png</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2953,6 +3114,9 @@
       </c>
       <c r="K52" t="n">
         <v>-0.03500000000000014</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="53">
@@ -2966,22 +3130,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1730732932.5040646</t>
+          <t>1731621537.8823738</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1730732933.5758371</t>
+          <t>1731621539.009973</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730732932.5040646.png</t>
+          <t>./test_images/CNY1731621537.8823738.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730732933.5758371.png</t>
+          <t>./test_images/CNY1731621539.009973.png</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3002,6 +3166,9 @@
       </c>
       <c r="K53" t="n">
         <v>0.009999999999999787</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="54">
@@ -3015,13 +3182,13 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1730732936.7770844</t>
+          <t>1731621542.5152695</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730732936.7770844.png</t>
+          <t>./test_images/CNY1731621542.5152695.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3038,8 +3205,15 @@
       <c r="I54" t="n">
         <v>11.91</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3052,22 +3226,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1730732948.9900672</t>
+          <t>1731621555.415098</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1730732954.2851853</t>
+          <t>1731621561.0241559</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730732948.9900672.png</t>
+          <t>./test_images/GMKN1731621555.415098.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730732954.2851853.png</t>
+          <t>./test_images/GMKN1731621561.0241559.png</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3088,6 +3262,9 @@
       </c>
       <c r="K55" t="n">
         <v>0.6799999999999926</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -3101,22 +3278,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1730732954.302112</t>
+          <t>1731621561.041168</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1730732956.3858938</t>
+          <t>1731621563.2864518</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730732954.302112.png</t>
+          <t>./test_images/GMKN1731621561.041168.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730732956.3858938.png</t>
+          <t>./test_images/GMKN1731621563.2864518.png</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3137,6 +3314,9 @@
       </c>
       <c r="K56" t="n">
         <v>0.3399999999999892</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="57">
@@ -3150,22 +3330,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1730732958.5456755</t>
+          <t>1731621565.5618362</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1730732962.914886</t>
+          <t>1731621570.161494</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730732958.5456755.png</t>
+          <t>./test_images/GMKN1731621565.5618362.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730732962.914886.png</t>
+          <t>./test_images/GMKN1731621570.161494.png</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3186,6 +3366,9 @@
       </c>
       <c r="K57" t="n">
         <v>-0.8599999999999994</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -3199,22 +3382,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1730732962.931813</t>
+          <t>1731621570.1774516</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1730732963.653483</t>
+          <t>1731621570.9322774</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730732962.931813.png</t>
+          <t>./test_images/GMKN1731621570.1774516.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730732963.653483.png</t>
+          <t>./test_images/GMKN1731621570.9322774.png</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3235,6 +3418,9 @@
       </c>
       <c r="K58" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="59">
@@ -3248,13 +3434,13 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1730732963.669439</t>
+          <t>1731621570.9482348</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730732963.669439.png</t>
+          <t>./test_images/GMKN1731621570.9482348.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3271,8 +3457,15 @@
       <c r="I59" t="n">
         <v>125.42</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>125.42</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3285,22 +3478,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1730732971.7711606</t>
+          <t>1731621579.9242797</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1730732972.5451655</t>
+          <t>1731621580.869899</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732971.7711606.png</t>
+          <t>./test_images/NLMK1731621579.9242797.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732972.5451655.png</t>
+          <t>./test_images/NLMK1731621580.869899.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3321,6 +3514,9 @@
       </c>
       <c r="K60" t="n">
         <v>1.240000000000009</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="61">
@@ -3334,22 +3530,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1730732973.4098547</t>
+          <t>1731621581.810371</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1730732976.5761464</t>
+          <t>1731621585.1536424</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732973.4098547.png</t>
+          <t>./test_images/NLMK1731621581.810371.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732976.5761464.png</t>
+          <t>./test_images/NLMK1731621585.1536424.png</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3370,6 +3566,9 @@
       </c>
       <c r="K61" t="n">
         <v>-2.280000000000001</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-1.41</v>
       </c>
     </row>
     <row r="62">
@@ -3383,22 +3582,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1730732976.593073</t>
+          <t>1731621585.1706245</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1730732983.5703988</t>
+          <t>1731621592.550982</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732976.593073.png</t>
+          <t>./test_images/NLMK1731621585.1706245.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732983.5703988.png</t>
+          <t>./test_images/NLMK1731621592.550982.png</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3419,6 +3618,9 @@
       </c>
       <c r="K62" t="n">
         <v>-0.4799999999999898</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="63">
@@ -3432,22 +3634,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1730732983.5863552</t>
+          <t>1731621592.5669668</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1730732986.7994375</t>
+          <t>1731621596.04236</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732983.5863552.png</t>
+          <t>./test_images/NLMK1731621592.5669668.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732986.7994375.png</t>
+          <t>./test_images/NLMK1731621596.04236.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3468,6 +3670,9 @@
       </c>
       <c r="K63" t="n">
         <v>-0.7999999999999829</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64">
@@ -3481,22 +3686,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1730732986.8164</t>
+          <t>1731621596.059408</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1730732988.0984793</t>
+          <t>1731621597.4684494</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732986.8164.png</t>
+          <t>./test_images/NLMK1731621596.059408.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732988.0984793.png</t>
+          <t>./test_images/NLMK1731621597.4684494.png</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3517,6 +3722,9 @@
       </c>
       <c r="K64" t="n">
         <v>0.2600000000000193</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="65">
@@ -3530,22 +3738,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1730732988.1160135</t>
+          <t>1731621597.4853902</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1730732989.162795</t>
+          <t>1731621598.6769502</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732988.1160135.png</t>
+          <t>./test_images/NLMK1731621597.4853902.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732989.162795.png</t>
+          <t>./test_images/NLMK1731621598.6769502.png</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3566,6 +3774,9 @@
       </c>
       <c r="K65" t="n">
         <v>-0.07999999999998408</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="66">
@@ -3579,22 +3790,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1730732989.1797225</t>
+          <t>1731621598.6939044</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1730732992.0558531</t>
+          <t>1731621601.7014384</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732989.1797225.png</t>
+          <t>./test_images/NLMK1731621598.6939044.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732992.0558531.png</t>
+          <t>./test_images/NLMK1731621601.7014384.png</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3615,6 +3826,9 @@
       </c>
       <c r="K66" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="67">
@@ -3628,22 +3842,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1730732992.0738401</t>
+          <t>1731621601.7193925</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1730732993.517925</t>
+          <t>1731621603.0473456</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732992.0738401.png</t>
+          <t>./test_images/NLMK1731621601.7193925.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732993.517925.png</t>
+          <t>./test_images/NLMK1731621603.0473456.png</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3664,6 +3878,9 @@
       </c>
       <c r="K67" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="68">
@@ -3677,22 +3894,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1730732993.5348818</t>
+          <t>1731621603.0653045</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1730732993.6760652</t>
+          <t>1731621603.2157512</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732993.5348818.png</t>
+          <t>./test_images/NLMK1731621603.0653045.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732993.6760652.png</t>
+          <t>./test_images/NLMK1731621603.2157512.png</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3713,6 +3930,9 @@
       </c>
       <c r="K68" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="69">
@@ -3726,22 +3946,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1730732994.1389544</t>
+          <t>1731621603.8204455</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1730732995.2839396</t>
+          <t>1731621605.0601704</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732994.1389544.png</t>
+          <t>./test_images/NLMK1731621603.8204455.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732995.2839396.png</t>
+          <t>./test_images/NLMK1731621605.0601704.png</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3762,6 +3982,9 @@
       </c>
       <c r="K69" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="70">
@@ -3775,22 +3998,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1730732995.3009272</t>
+          <t>1731621605.077125</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1730732996.603012</t>
+          <t>1731621606.46431</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732995.3009272.png</t>
+          <t>./test_images/NLMK1731621605.077125.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732996.603012.png</t>
+          <t>./test_images/NLMK1731621606.46431.png</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3811,6 +4034,9 @@
       </c>
       <c r="K70" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="71">
@@ -3824,22 +4050,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1730732996.6209655</t>
+          <t>1731621606.4812627</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1730732997.6179597</t>
+          <t>1731621607.51847</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732996.6209655.png</t>
+          <t>./test_images/NLMK1731621606.4812627.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732997.6179597.png</t>
+          <t>./test_images/NLMK1731621607.51847.png</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3860,6 +4086,9 @@
       </c>
       <c r="K71" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="72">
@@ -3873,22 +4102,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1730732997.6368818</t>
+          <t>1731621607.5359285</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1730733000.861873</t>
+          <t>1731621610.9119277</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730732997.6368818.png</t>
+          <t>./test_images/NLMK1731621607.5359285.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730733000.861873.png</t>
+          <t>./test_images/NLMK1731621610.9119277.png</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3909,6 +4138,9 @@
       </c>
       <c r="K72" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="73">
@@ -3922,22 +4154,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1730733002.6257606</t>
+          <t>1731621612.756073</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1730733003.057606</t>
+          <t>1731621613.2121265</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733002.6257606.png</t>
+          <t>./test_images/MAGN1731621612.756073.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733003.057606.png</t>
+          <t>./test_images/MAGN1731621613.2121265.png</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3958,6 +4190,9 @@
       </c>
       <c r="K73" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="74">
@@ -3971,22 +4206,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1730733003.074566</t>
+          <t>1731621613.229088</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1730733004.7029338</t>
+          <t>1731621614.9131243</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733003.074566.png</t>
+          <t>./test_images/MAGN1731621613.229088.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733004.7029338.png</t>
+          <t>./test_images/MAGN1731621614.9131243.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4007,6 +4242,9 @@
       </c>
       <c r="K74" t="n">
         <v>0.125</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="75">
@@ -4020,22 +4258,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1730733005.5931118</t>
+          <t>1731621615.8741374</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1730733006.4827642</t>
+          <t>1731621616.895193</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733005.5931118.png</t>
+          <t>./test_images/MAGN1731621615.8741374.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733006.4827642.png</t>
+          <t>./test_images/MAGN1731621616.895193.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4056,6 +4294,9 @@
       </c>
       <c r="K75" t="n">
         <v>0.105000000000004</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="76">
@@ -4069,22 +4310,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1730733007.2931085</t>
+          <t>1731621617.799341</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1730733008.756285</t>
+          <t>1731621619.364058</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733007.2931085.png</t>
+          <t>./test_images/MAGN1731621617.799341.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733008.756285.png</t>
+          <t>./test_images/MAGN1731621619.364058.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4105,6 +4346,9 @@
       </c>
       <c r="K76" t="n">
         <v>0.03500000000000369</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4118,22 +4362,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1730733008.7732403</t>
+          <t>1731621619.382006</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1730733010.09128</t>
+          <t>1731621620.7039495</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733008.7732403.png</t>
+          <t>./test_images/MAGN1731621619.382006.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733010.09128.png</t>
+          <t>./test_images/MAGN1731621620.7039495.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4154,6 +4398,9 @@
       </c>
       <c r="K77" t="n">
         <v>0.105000000000004</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="78">
@@ -4167,22 +4414,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1730733011.5084991</t>
+          <t>1731621622.3042786</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1730733014.3552158</t>
+          <t>1731621625.1810906</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733011.5084991.png</t>
+          <t>./test_images/MAGN1731621622.3042786.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733014.3552158.png</t>
+          <t>./test_images/MAGN1731621625.1810906.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4203,6 +4450,9 @@
       </c>
       <c r="K78" t="n">
         <v>0.1350000000000051</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="79">
@@ -4216,22 +4466,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1730733015.3628812</t>
+          <t>1731621626.235802</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1730733018.744431</t>
+          <t>1731621629.8617911</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733015.3628812.png</t>
+          <t>./test_images/MAGN1731621626.235802.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733018.744431.png</t>
+          <t>./test_images/MAGN1731621629.8617911.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4252,6 +4502,9 @@
       </c>
       <c r="K79" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="L79" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="80">
@@ -4265,22 +4518,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1730733018.762355</t>
+          <t>1731621629.878744</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1730733019.7103899</t>
+          <t>1731621630.8756044</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733018.762355.png</t>
+          <t>./test_images/MAGN1731621629.878744.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733019.7103899.png</t>
+          <t>./test_images/MAGN1731621630.8756044.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4301,6 +4554,9 @@
       </c>
       <c r="K80" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="81">
@@ -4314,22 +4570,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1730733019.7283406</t>
+          <t>1731621630.8925855</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1730733021.9588597</t>
+          <t>1731621633.3075874</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733019.7283406.png</t>
+          <t>./test_images/MAGN1731621630.8925855.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733021.9588597.png</t>
+          <t>./test_images/MAGN1731621633.3075874.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4350,6 +4606,9 @@
       </c>
       <c r="K81" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="82">
@@ -4363,22 +4622,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1730733021.9767847</t>
+          <t>1731621633.3255413</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1730733022.505441</t>
+          <t>1731621633.8641214</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733021.9767847.png</t>
+          <t>./test_images/MAGN1731621633.3255413.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733022.505441.png</t>
+          <t>./test_images/MAGN1731621633.8641214.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4399,6 +4658,9 @@
       </c>
       <c r="K82" t="n">
         <v>0.115000000000002</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="83">
@@ -4412,22 +4674,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1730733023.9083943</t>
+          <t>1731621635.2319136</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1730733024.9836385</t>
+          <t>1731621636.423484</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733023.9083943.png</t>
+          <t>./test_images/MAGN1731621635.2319136.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733024.9836385.png</t>
+          <t>./test_images/MAGN1731621636.423484.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4448,6 +4710,9 @@
       </c>
       <c r="K83" t="n">
         <v>0.1550000000000011</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="84">
@@ -4461,22 +4726,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1730733027.1954815</t>
+          <t>1731621638.8509352</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1730733030.494088</t>
+          <t>1731621642.0993152</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733027.1954815.png</t>
+          <t>./test_images/MAGN1731621638.8509352.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733030.494088.png</t>
+          <t>./test_images/MAGN1731621642.0993152.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4497,6 +4762,9 @@
       </c>
       <c r="K84" t="n">
         <v>0.07499999999999574</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="85">
@@ -4510,22 +4778,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1730733031.400263</t>
+          <t>1731621643.0735571</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1730733033.1110709</t>
+          <t>1731621644.8856754</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733031.400263.png</t>
+          <t>./test_images/MAGN1731621643.0735571.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730733033.1110709.png</t>
+          <t>./test_images/MAGN1731621644.8856754.png</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4546,6 +4814,9 @@
       </c>
       <c r="K85" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="86">
@@ -4559,22 +4830,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1730733036.193687</t>
+          <t>1731621647.9703386</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1730733038.9659681</t>
+          <t>1731621650.9422646</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730733036.193687.png</t>
+          <t>./test_images/CHMF1731621647.9703386.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730733038.9659681.png</t>
+          <t>./test_images/CHMF1731621650.9422646.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4595,6 +4866,9 @@
       </c>
       <c r="K86" t="n">
         <v>-7</v>
+      </c>
+      <c r="L86" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87">
@@ -4608,22 +4882,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1730733038.98392</t>
+          <t>1731621650.9602165</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1730733046.8039813</t>
+          <t>1731621658.9683313</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730733038.98392.png</t>
+          <t>./test_images/CHMF1731621650.9602165.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730733046.8039813.png</t>
+          <t>./test_images/CHMF1731621658.9683313.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4644,6 +4918,9 @@
       </c>
       <c r="K87" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="88">
@@ -4657,22 +4934,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1730733046.8219333</t>
+          <t>1731621658.9862838</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1730733053.2967074</t>
+          <t>1731621665.7317526</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730733046.8219333.png</t>
+          <t>./test_images/CHMF1731621658.9862838.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730733053.2967074.png</t>
+          <t>./test_images/CHMF1731621665.7317526.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4693,6 +4970,9 @@
       </c>
       <c r="K88" t="n">
         <v>-24.79999999999995</v>
+      </c>
+      <c r="L88" t="n">
+        <v>-1.79</v>
       </c>
     </row>
     <row r="89">
@@ -4706,22 +4986,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1730733054.9665399</t>
+          <t>1731621667.4882867</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1730733059.1803977</t>
+          <t>1731621672.0509696</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730733054.9665399.png</t>
+          <t>./test_images/CHMF1731621667.4882867.png</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730733059.1803977.png</t>
+          <t>./test_images/CHMF1731621672.0509696.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4742,6 +5022,9 @@
       </c>
       <c r="K89" t="n">
         <v>4.799999999999955</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="90">
@@ -4755,13 +5038,13 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1730733059.201314</t>
+          <t>1731621672.0679972</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730733059.201314.png</t>
+          <t>./test_images/CHMF1731621672.0679972.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -4778,8 +5061,15 @@
       <c r="I90" t="n">
         <v>1368.8</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1368.8</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4792,22 +5082,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1730733065.1601527</t>
+          <t>1731621678.2421288</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1730733066.1151361</t>
+          <t>1731621679.2118776</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730733065.1601527.png</t>
+          <t>./test_images/ALRS1731621678.2421288.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730733066.1151361.png</t>
+          <t>./test_images/ALRS1731621679.2118776.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4827,6 +5117,9 @@
         <v>59.98</v>
       </c>
       <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4841,22 +5134,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1730733066.1330886</t>
+          <t>1731621679.2288296</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1730733068.5795157</t>
+          <t>1731621681.674996</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730733066.1330886.png</t>
+          <t>./test_images/ALRS1731621679.2288296.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730733068.5795157.png</t>
+          <t>./test_images/ALRS1731621681.674996.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4877,6 +5170,9 @@
       </c>
       <c r="K92" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="93">
@@ -4890,22 +5186,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1730733069.4637318</t>
+          <t>1731621682.5962422</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1730733069.7350528</t>
+          <t>1731621682.85752</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730733069.4637318.png</t>
+          <t>./test_images/ALRS1731621682.5962422.png</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730733069.7350528.png</t>
+          <t>./test_images/ALRS1731621682.85752.png</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4926,6 +5222,9 @@
       </c>
       <c r="K93" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="94">
@@ -4939,22 +5238,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1730733079.99689</t>
+          <t>1731621693.0486789</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1730733081.9201212</t>
+          <t>1731621695.007745</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730733079.99689.png</t>
+          <t>./test_images/ALRS1731621693.0486789.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730733081.9201212.png</t>
+          <t>./test_images/ALRS1731621695.007745.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4975,6 +5274,9 @@
       </c>
       <c r="K94" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="95">
@@ -4988,22 +5290,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1730733083.6516218</t>
+          <t>1731621696.7486413</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1730733085.8570035</t>
+          <t>1731621698.920942</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730733083.6516218.png</t>
+          <t>./test_images/ALRS1731621696.7486413.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730733085.8570035.png</t>
+          <t>./test_images/ALRS1731621698.920942.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -5024,6 +5326,9 @@
       </c>
       <c r="K95" t="n">
         <v>-0.2700000000000031</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="96">
@@ -5037,22 +5342,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1730733085.8759248</t>
+          <t>1731621698.9389193</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1730733088.3607433</t>
+          <t>1731621701.4236548</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730733085.8759248.png</t>
+          <t>./test_images/ALRS1731621698.9389193.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730733088.3607433.png</t>
+          <t>./test_images/ALRS1731621701.4236548.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5073,6 +5378,9 @@
       </c>
       <c r="K96" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="97">
@@ -5086,22 +5394,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1730733097.6131217</t>
+          <t>1731621710.7157378</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1730733098.6987402</t>
+          <t>1731621711.8777437</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733097.6131217.png</t>
+          <t>./test_images/VTBR1731621710.7157378.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733098.6987402.png</t>
+          <t>./test_images/VTBR1731621711.8777437.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5122,6 +5430,9 @@
       </c>
       <c r="K97" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="98">
@@ -5135,22 +5446,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1730733100.8134644</t>
+          <t>1731621714.108525</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1730733102.565272</t>
+          <t>1731621715.9419608</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733100.8134644.png</t>
+          <t>./test_images/VTBR1731621714.108525.png</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733102.565272.png</t>
+          <t>./test_images/VTBR1731621715.9419608.png</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5171,6 +5482,9 @@
       </c>
       <c r="K98" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="99">
@@ -5184,22 +5498,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1730733106.1874654</t>
+          <t>1731621719.5818164</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1730733112.5514076</t>
+          <t>1731621726.3131535</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733106.1874654.png</t>
+          <t>./test_images/VTBR1731621719.5818164.png</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733112.5514076.png</t>
+          <t>./test_images/VTBR1731621726.3131535.png</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5220,6 +5534,9 @@
       </c>
       <c r="K99" t="n">
         <v>-0.8099999999999881</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-0.84</v>
       </c>
     </row>
     <row r="100">
@@ -5233,22 +5550,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1730733112.5893068</t>
+          <t>1731621726.3320756</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1730733114.422257</t>
+          <t>1731621728.2678962</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733112.5893068.png</t>
+          <t>./test_images/VTBR1731621726.3320756.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733114.422257.png</t>
+          <t>./test_images/VTBR1731621728.2678962.png</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5269,6 +5586,9 @@
       </c>
       <c r="K100" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="101">
@@ -5282,22 +5602,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1730733115.3505163</t>
+          <t>1731621729.2630618</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1730733117.21461</t>
+          <t>1731621731.2373314</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733115.3505163.png</t>
+          <t>./test_images/VTBR1731621729.2630618.png</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733117.21461.png</t>
+          <t>./test_images/VTBR1731621731.2373314.png</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5318,6 +5638,9 @@
       </c>
       <c r="K101" t="n">
         <v>-0.4099999999999966</v>
+      </c>
+      <c r="L101" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="102">
@@ -5331,22 +5654,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1730733117.2335594</t>
+          <t>1731621731.2562525</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1730733122.5701451</t>
+          <t>1731621736.9169967</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733117.2335594.png</t>
+          <t>./test_images/VTBR1731621731.2562525.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733122.5701451.png</t>
+          <t>./test_images/VTBR1731621736.9169967.png</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5367,6 +5690,9 @@
       </c>
       <c r="K102" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="103">
@@ -5380,22 +5706,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1730733122.5900915</t>
+          <t>1731621736.934976</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1730733123.9170194</t>
+          <t>1731621738.3053453</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733122.5900915.png</t>
+          <t>./test_images/VTBR1731621736.934976.png</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733123.9170194.png</t>
+          <t>./test_images/VTBR1731621738.3053453.png</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5416,6 +5742,9 @@
       </c>
       <c r="K103" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="104">
@@ -5429,13 +5758,13 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1730733123.9359684</t>
+          <t>1731621738.3232973</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>./test_images/VTBR1730733123.9359684.png</t>
+          <t>./test_images/VTBR1731621738.3232973.png</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -5452,8 +5781,15 @@
       <c r="I104" t="n">
         <v>96.05</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>96.05</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5466,22 +5802,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1730733129.4931965</t>
+          <t>1731621744.3226101</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1730733131.7343795</t>
+          <t>1731621746.598169</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730733129.4931965.png</t>
+          <t>./test_images/SELG1731621744.3226101.png</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730733131.7343795.png</t>
+          <t>./test_images/SELG1731621746.598169.png</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5502,6 +5838,9 @@
       </c>
       <c r="K105" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="106">
@@ -5515,22 +5854,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1730733131.7732425</t>
+          <t>1731621746.616092</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1730733134.0105183</t>
+          <t>1731621748.878548</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730733131.7732425.png</t>
+          <t>./test_images/SELG1731621746.616092.png</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730733134.0105183.png</t>
+          <t>./test_images/SELG1731621748.878548.png</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5551,6 +5890,9 @@
       </c>
       <c r="K106" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="107">
@@ -5564,22 +5906,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1730733139.0345204</t>
+          <t>1731621754.157414</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1730733144.5685692</t>
+          <t>1731621759.8957846</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730733139.0345204.png</t>
+          <t>./test_images/SELG1731621754.157414.png</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730733144.5685692.png</t>
+          <t>./test_images/SELG1731621759.8957846.png</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5600,6 +5942,9 @@
       </c>
       <c r="K107" t="n">
         <v>-0.6999999999999957</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-1.25</v>
       </c>
     </row>
     <row r="108">
@@ -5613,22 +5958,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1730733145.7458117</t>
+          <t>1731621761.0969129</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1730733147.3665998</t>
+          <t>1731621762.7864397</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730733145.7458117.png</t>
+          <t>./test_images/SELG1731621761.0969129.png</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730733147.3665998.png</t>
+          <t>./test_images/SELG1731621762.7864397.png</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5649,6 +5994,9 @@
       </c>
       <c r="K108" t="n">
         <v>-0.08999999999999631</v>
+      </c>
+      <c r="L108" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="109">
@@ -5662,22 +6010,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1730733147.384526</t>
+          <t>1731621762.8047297</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1730733155.0948498</t>
+          <t>1731621771.0702343</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730733147.384526.png</t>
+          <t>./test_images/SELG1731621762.8047297.png</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730733155.0948498.png</t>
+          <t>./test_images/SELG1731621771.0702343.png</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5698,6 +6046,9 @@
       </c>
       <c r="K109" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="110">
@@ -5711,22 +6062,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1730733156.5922544</t>
+          <t>1731621772.618308</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1730733157.566678</t>
+          <t>1731621773.6659892</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730733156.5922544.png</t>
+          <t>./test_images/SOFL1731621772.618308.png</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730733157.566678.png</t>
+          <t>./test_images/SOFL1731621773.6659892.png</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5747,6 +6098,9 @@
       </c>
       <c r="K110" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="111">
@@ -5760,22 +6114,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1730733157.5836031</t>
+          <t>1731621773.682916</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1730733158.4648287</t>
+          <t>1731621774.6271744</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730733157.5836031.png</t>
+          <t>./test_images/SOFL1731621773.682916.png</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730733158.4648287.png</t>
+          <t>./test_images/SOFL1731621774.6271744.png</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5796,6 +6150,9 @@
       </c>
       <c r="K111" t="n">
         <v>-1.019999999999982</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-0.7100000000000001</v>
       </c>
     </row>
     <row r="112">
@@ -5809,22 +6166,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1730733158.4819338</t>
+          <t>1731621774.6441288</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1730733167.1884892</t>
+          <t>1731621784.0183086</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730733158.4819338.png</t>
+          <t>./test_images/SOFL1731621774.6441288.png</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730733167.1884892.png</t>
+          <t>./test_images/SOFL1731621784.0183086.png</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5845,6 +6202,9 @@
       </c>
       <c r="K112" t="n">
         <v>-0.1799999999999784</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="113">
@@ -5858,22 +6218,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1730733172.6312196</t>
+          <t>1731621789.7370827</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1730733183.726752</t>
+          <t>1731621801.506331</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730733172.6312196.png</t>
+          <t>./test_images/SOFL1731621789.7370827.png</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730733183.726752.png</t>
+          <t>./test_images/SOFL1731621801.506331.png</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5894,6 +6254,9 @@
       </c>
       <c r="K113" t="n">
         <v>-1.099999999999994</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="114">
@@ -5907,22 +6270,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1730733183.7447033</t>
+          <t>1731621801.5242832</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1730733185.0697458</t>
+          <t>1731621802.8261821</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730733183.7447033.png</t>
+          <t>./test_images/SOFL1731621801.5242832.png</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730733185.0697458.png</t>
+          <t>./test_images/SOFL1731621802.8261821.png</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5943,6 +6306,9 @@
       </c>
       <c r="K114" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="115">
@@ -5956,22 +6322,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1730733185.9184875</t>
+          <t>1731621803.6639729</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1730733186.5837297</t>
+          <t>1731621804.3277545</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733185.9184875.png</t>
+          <t>./test_images/AFKS1731621803.6639729.png</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733186.5837297.png</t>
+          <t>./test_images/AFKS1731621804.3277545.png</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5992,6 +6358,9 @@
       </c>
       <c r="K115" t="n">
         <v>0.0470000000000006</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="116">
@@ -6005,22 +6374,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1730733186.6356177</t>
+          <t>1731621804.3457072</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1730733187.5820544</t>
+          <t>1731621805.2579203</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733186.6356177.png</t>
+          <t>./test_images/AFKS1731621804.3457072.png</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733187.5820544.png</t>
+          <t>./test_images/AFKS1731621805.2579203.png</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -6041,6 +6410,9 @@
       </c>
       <c r="K116" t="n">
         <v>-0.02299999999999969</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="117">
@@ -6054,22 +6426,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1730733187.631922</t>
+          <t>1731621805.2758725</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1730733190.0825853</t>
+          <t>1731621807.6790538</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733187.631922.png</t>
+          <t>./test_images/AFKS1731621805.2758725.png</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733190.0825853.png</t>
+          <t>./test_images/AFKS1731621807.6790538.png</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6090,6 +6462,9 @@
       </c>
       <c r="K117" t="n">
         <v>-0.07199999999999918</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="118">
@@ -6103,22 +6478,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1730733190.1015055</t>
+          <t>1731621807.6960082</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1730733191.4740703</t>
+          <t>1731621809.083542</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733190.1015055.png</t>
+          <t>./test_images/AFKS1731621807.6960082.png</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733191.4740703.png</t>
+          <t>./test_images/AFKS1731621809.083542.png</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6139,6 +6514,9 @@
       </c>
       <c r="K118" t="n">
         <v>0.08299999999999841</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="119">
@@ -6152,22 +6530,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1730733193.5488064</t>
+          <t>1731621811.2674885</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1730733196.334229</t>
+          <t>1731621813.9521573</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733193.5488064.png</t>
+          <t>./test_images/AFKS1731621811.2674885.png</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733196.334229.png</t>
+          <t>./test_images/AFKS1731621813.9521573.png</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -6188,6 +6566,9 @@
       </c>
       <c r="K119" t="n">
         <v>-0.02499999999999858</v>
+      </c>
+      <c r="L119" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="120">
@@ -6201,22 +6582,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1730733198.047013</t>
+          <t>1731621815.8827775</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1730733198.9515681</t>
+          <t>1731621816.7869813</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733198.047013.png</t>
+          <t>./test_images/AFKS1731621815.8827775.png</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733198.9515681.png</t>
+          <t>./test_images/AFKS1731621816.7869813.png</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -6237,6 +6618,9 @@
       </c>
       <c r="K120" t="n">
         <v>0.1159999999999997</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="121">
@@ -6250,22 +6634,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1730733200.4272716</t>
+          <t>1731621818.351432</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1730733205.2807083</t>
+          <t>1731621823.2339184</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733200.4272716.png</t>
+          <t>./test_images/AFKS1731621818.351432.png</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733205.2807083.png</t>
+          <t>./test_images/AFKS1731621823.2339184.png</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -6286,6 +6670,9 @@
       </c>
       <c r="K121" t="n">
         <v>0.03200000000000003</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="122">
@@ -6299,22 +6686,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1730733206.0616212</t>
+          <t>1731621824.0323145</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1730733207.0359771</t>
+          <t>1731621825.080269</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733206.0616212.png</t>
+          <t>./test_images/AFKS1731621824.0323145.png</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733207.0359771.png</t>
+          <t>./test_images/AFKS1731621825.080269.png</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6335,6 +6722,9 @@
       </c>
       <c r="K122" t="n">
         <v>-0.09099999999999753</v>
+      </c>
+      <c r="L122" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="123">
@@ -6348,22 +6738,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1730733207.0549</t>
+          <t>1731621825.098215</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1730733209.8792377</t>
+          <t>1731621828.1928873</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733207.0549.png</t>
+          <t>./test_images/AFKS1731621825.098215.png</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733209.8792377.png</t>
+          <t>./test_images/AFKS1731621828.1928873.png</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -6384,6 +6774,9 @@
       </c>
       <c r="K123" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="124">
@@ -6397,22 +6790,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1730733209.898187</t>
+          <t>1731621828.2108395</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1730733210.4448056</t>
+          <t>1731621828.8261876</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733209.898187.png</t>
+          <t>./test_images/AFKS1731621828.2108395.png</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733210.4448056.png</t>
+          <t>./test_images/AFKS1731621828.8261876.png</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6433,6 +6826,9 @@
       </c>
       <c r="K124" t="n">
         <v>-0.1050000000000004</v>
+      </c>
+      <c r="L124" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="125">
@@ -6446,22 +6842,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1730733210.463755</t>
+          <t>1731621828.844112</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1730733213.2339933</t>
+          <t>1731621831.7585702</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733210.463755.png</t>
+          <t>./test_images/AFKS1731621828.844112.png</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733213.2339933.png</t>
+          <t>./test_images/AFKS1731621831.7585702.png</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -6482,6 +6878,9 @@
       </c>
       <c r="K125" t="n">
         <v>-0.01699999999999946</v>
+      </c>
+      <c r="L125" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="126">
@@ -6495,13 +6894,13 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1730733213.2529418</t>
+          <t>1731621831.7765222</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730733213.2529418.png</t>
+          <t>./test_images/AFKS1731621831.7765222.png</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -6518,8 +6917,15 @@
       <c r="I126" t="n">
         <v>19.937</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>19.937</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6532,22 +6938,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1730733217.2617748</t>
+          <t>1731621835.814945</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1730733224.3244555</t>
+          <t>1731621843.3380125</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733217.2617748.png</t>
+          <t>./test_images/SIBN1731621835.814945.png</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733224.3244555.png</t>
+          <t>./test_images/SIBN1731621843.3380125.png</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6568,6 +6974,9 @@
       </c>
       <c r="K127" t="n">
         <v>1.75</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="128">
@@ -6581,22 +6990,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1730733224.365346</t>
+          <t>1731621843.3569343</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1730733228.2978728</t>
+          <t>1731621847.6546972</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733224.365346.png</t>
+          <t>./test_images/SIBN1731621843.3569343.png</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733228.2978728.png</t>
+          <t>./test_images/SIBN1731621847.6546972.png</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6616,6 +7025,9 @@
         <v>668.75</v>
       </c>
       <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6630,22 +7042,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1730733228.3168223</t>
+          <t>1731621847.6736138</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1730733229.000965</t>
+          <t>1731621848.4356601</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733228.3168223.png</t>
+          <t>./test_images/SIBN1731621847.6736138.png</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733229.000965.png</t>
+          <t>./test_images/SIBN1731621848.4356601.png</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6666,6 +7078,9 @@
       </c>
       <c r="K129" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="130">
@@ -6679,22 +7094,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1730733232.7096267</t>
+          <t>1731621852.3448274</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1730733233.92697</t>
+          <t>1731621853.5991702</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733232.7096267.png</t>
+          <t>./test_images/SIBN1731621852.3448274.png</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733233.92697.png</t>
+          <t>./test_images/SIBN1731621853.5991702.png</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -6715,6 +7130,9 @@
       </c>
       <c r="K130" t="n">
         <v>1.75</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="131">
@@ -6728,22 +7146,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1730733239.0159185</t>
+          <t>1731621859.2428977</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1730733240.723486</t>
+          <t>1731621861.1614535</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733239.0159185.png</t>
+          <t>./test_images/SIBN1731621859.2428977.png</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733240.723486.png</t>
+          <t>./test_images/SIBN1731621861.1614535.png</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6764,6 +7182,9 @@
       </c>
       <c r="K131" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="L131" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="132">
@@ -6777,22 +7198,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1730733240.7424352</t>
+          <t>1731621861.1833951</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1730733240.930929</t>
+          <t>1731621861.4094017</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733240.7424352.png</t>
+          <t>./test_images/SIBN1731621861.1833951.png</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733240.930929.png</t>
+          <t>./test_images/SIBN1731621861.4094017.png</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6813,6 +7234,9 @@
       </c>
       <c r="K132" t="n">
         <v>-0.7000000000000455</v>
+      </c>
+      <c r="L132" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="133">
@@ -6826,13 +7250,13 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1730733240.9498658</t>
+          <t>1731621861.4283245</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730733240.9498658.png</t>
+          <t>./test_images/SIBN1731621861.4283245.png</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
@@ -6849,8 +7273,15 @@
       <c r="I133" t="n">
         <v>669.5</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6863,22 +7294,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1730733249.3336663</t>
+          <t>1731621870.415728</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1730733254.6801136</t>
+          <t>1731621876.2584827</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730733249.3336663.png</t>
+          <t>./test_images/MTLR1731621870.415728.png</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730733254.6801136.png</t>
+          <t>./test_images/MTLR1731621876.2584827.png</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6899,6 +7330,9 @@
       </c>
       <c r="K134" t="n">
         <v>-2.189999999999998</v>
+      </c>
+      <c r="L134" t="n">
+        <v>-1.41</v>
       </c>
     </row>
     <row r="135">
@@ -6912,22 +7346,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1730733254.722001</t>
+          <t>1731621876.2804542</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1730733255.300482</t>
+          <t>1731621876.895731</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730733254.722001.png</t>
+          <t>./test_images/MTLR1731621876.2804542.png</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730733255.300482.png</t>
+          <t>./test_images/MTLR1731621876.895731.png</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6948,6 +7382,9 @@
       </c>
       <c r="K135" t="n">
         <v>0.8400000000000034</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="136">
@@ -6961,22 +7398,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1730733263.9454052</t>
+          <t>1731621886.3222551</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1730733264.2269323</t>
+          <t>1731621886.6133788</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730733263.9454052.png</t>
+          <t>./test_images/MTLR1731621886.3222551.png</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730733264.2269323.png</t>
+          <t>./test_images/MTLR1731621886.6133788.png</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6997,6 +7434,9 @@
       </c>
       <c r="K136" t="n">
         <v>0.5800000000000125</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="137">
@@ -7010,22 +7450,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1730733268.4435952</t>
+          <t>1731621891.190482</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1730733270.3885732</t>
+          <t>1731621893.2014356</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730733268.4435952.png</t>
+          <t>./test_images/MTLR1731621891.190482.png</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730733270.3885732.png</t>
+          <t>./test_images/MTLR1731621893.2014356.png</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -7046,6 +7486,9 @@
       </c>
       <c r="K137" t="n">
         <v>0.7700000000000102</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="138">
@@ -7059,13 +7502,13 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1730733274.7361953</t>
+          <t>1731621897.7027483</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>./test_images/MTLR1730733274.7361953.png</t>
+          <t>./test_images/MTLR1731621897.7027483.png</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -7082,8 +7525,15 @@
       <c r="I138" t="n">
         <v>148.38</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>148.38</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7096,22 +7546,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1730733281.2372777</t>
+          <t>1731621904.6697204</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1730733282.9047647</t>
+          <t>1731621906.5208144</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730733281.2372777.png</t>
+          <t>./test_images/FEES1731621904.6697204.png</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730733282.9047647.png</t>
+          <t>./test_images/FEES1731621906.5208144.png</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -7132,6 +7582,9 @@
       </c>
       <c r="K139" t="n">
         <v>-0.0003800000000000053</v>
+      </c>
+      <c r="L139" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="140">
@@ -7145,22 +7598,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1730733282.9257088</t>
+          <t>1731621906.5397315</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1730733284.4139853</t>
+          <t>1731621908.3356006</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730733282.9257088.png</t>
+          <t>./test_images/FEES1731621906.5397315.png</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730733284.4139853.png</t>
+          <t>./test_images/FEES1731621908.3356006.png</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -7181,6 +7634,9 @@
       </c>
       <c r="K140" t="n">
         <v>0.0003799999999999915</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="141">
@@ -7194,22 +7650,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1730733294.4225636</t>
+          <t>1731621919.1351233</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1730733295.9107342</t>
+          <t>1731621920.7587943</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730733294.4225636.png</t>
+          <t>./test_images/FEES1731621919.1351233.png</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730733295.9107342.png</t>
+          <t>./test_images/FEES1731621920.7587943.png</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -7230,6 +7686,9 @@
       </c>
       <c r="K141" t="n">
         <v>0.000340000000000007</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="142">
@@ -7243,22 +7702,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1730733296.7115493</t>
+          <t>1731621921.6682105</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1730733297.932953</t>
+          <t>1731621923.0459616</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730733296.7115493.png</t>
+          <t>./test_images/FEES1731621921.6682105.png</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730733297.932953.png</t>
+          <t>./test_images/FEES1731621923.0459616.png</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -7279,6 +7738,9 @@
       </c>
       <c r="K142" t="n">
         <v>-0.000219999999999998</v>
+      </c>
+      <c r="L142" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="143">
@@ -7292,13 +7754,13 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1730733297.9519045</t>
+          <t>1731621923.064881</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730733297.9519045.png</t>
+          <t>./test_images/FEES1731621923.064881.png</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
@@ -7315,8 +7777,15 @@
       <c r="I143" t="n">
         <v>0.09516000000000001</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.09516000000000001</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7329,22 +7798,22 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1730733311.224024</t>
+          <t>1731621937.280823</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1730733312.2440646</t>
+          <t>1731621938.3753664</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733311.224024.png</t>
+          <t>./test_images/MXI1731621937.280823.png</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733312.2440646.png</t>
+          <t>./test_images/MXI1731621938.3753664.png</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -7365,6 +7834,9 @@
       </c>
       <c r="K144" t="n">
         <v>3.25</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="145">
@@ -7378,22 +7850,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1730733313.281267</t>
+          <t>1731621939.4813504</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1730733315.089437</t>
+          <t>1731621941.5204496</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733313.281267.png</t>
+          <t>./test_images/MXI1731621939.4813504.png</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733315.089437.png</t>
+          <t>./test_images/MXI1731621941.5204496.png</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7414,6 +7886,9 @@
       </c>
       <c r="K145" t="n">
         <v>-3.900000000000091</v>
+      </c>
+      <c r="L145" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="146">
@@ -7427,22 +7902,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1730733315.1083858</t>
+          <t>1731621941.5395145</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1730733317.4606564</t>
+          <t>1731621944.02289</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733315.1083858.png</t>
+          <t>./test_images/MXI1731621941.5395145.png</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733317.4606564.png</t>
+          <t>./test_images/MXI1731621944.02289.png</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -7463,6 +7938,9 @@
       </c>
       <c r="K146" t="n">
         <v>8.900000000000091</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="147">
@@ -7476,22 +7954,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1730733322.1193094</t>
+          <t>1731621948.6916804</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1730733324.8334026</t>
+          <t>1731621951.4729218</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733322.1193094.png</t>
+          <t>./test_images/MXI1731621948.6916804.png</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733324.8334026.png</t>
+          <t>./test_images/MXI1731621951.4729218.png</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -7512,6 +7990,9 @@
       </c>
       <c r="K147" t="n">
         <v>9.550000000000182</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="148">
@@ -7525,22 +8006,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1730733325.6471605</t>
+          <t>1731621952.3408837</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1730733330.2547736</t>
+          <t>1731621957.0987465</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733325.6471605.png</t>
+          <t>./test_images/MXI1731621952.3408837.png</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733330.2547736.png</t>
+          <t>./test_images/MXI1731621957.0987465.png</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -7561,6 +8042,9 @@
       </c>
       <c r="K148" t="n">
         <v>-14.40000000000009</v>
+      </c>
+      <c r="L148" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149">
@@ -7574,22 +8058,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1730733330.27569</t>
+          <t>1731621957.1186922</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1730733331.4769666</t>
+          <t>1731621958.3444593</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733330.27569.png</t>
+          <t>./test_images/MXI1731621957.1186922.png</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733331.4769666.png</t>
+          <t>./test_images/MXI1731621958.3444593.png</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7610,6 +8094,9 @@
       </c>
       <c r="K149" t="n">
         <v>-1.150000000000091</v>
+      </c>
+      <c r="L149" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="150">
@@ -7623,22 +8110,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1730733331.5168347</t>
+          <t>1731621958.364406</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1730733334.7869794</t>
+          <t>1731621961.831193</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733331.5168347.png</t>
+          <t>./test_images/MXI1731621958.364406.png</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733334.7869794.png</t>
+          <t>./test_images/MXI1731621961.831193.png</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7659,6 +8146,9 @@
       </c>
       <c r="K150" t="n">
         <v>-1.700000000000273</v>
+      </c>
+      <c r="L150" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="151">
@@ -7672,22 +8162,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1730733334.8059282</t>
+          <t>1731621961.8491173</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1730733336.2926977</t>
+          <t>1731621963.476404</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733334.8059282.png</t>
+          <t>./test_images/MXI1731621961.8491173.png</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730733336.2926977.png</t>
+          <t>./test_images/MXI1731621963.476404.png</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -7708,6 +8198,9 @@
       </c>
       <c r="K151" t="n">
         <v>3.449999999999818</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -7721,7 +8214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7745,6 +8238,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -7758,6 +8266,15 @@
       <c r="C2" t="n">
         <v>13</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.04576923076923178</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -7771,6 +8288,15 @@
       <c r="C3" t="n">
         <v>13</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.04307692307691888</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.3399999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -7782,7 +8308,16 @@
         <v>-0.02499999999999503</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.002083333333332919</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.1499999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5">
@@ -7797,6 +8332,15 @@
       <c r="C5" t="n">
         <v>10</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.0910000000000025</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -7810,6 +8354,15 @@
       <c r="C6" t="n">
         <v>10</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.1460000000000022</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -7821,33 +8374,60 @@
         <v>-0.7999999999999829</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.07999999999999829</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.999999999999545</v>
+        <v>-0.6999999999999744</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.0874999999999968</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6999999999999744</v>
+        <v>3.999999999999545</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4999999999999432</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -7860,7 +8440,16 @@
         <v>6.000000000000114</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7500000000000142</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">
@@ -7873,33 +8462,60 @@
         <v>2.249999999999886</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3214285714285552</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.289999999999992</v>
+        <v>-0.01200000000000223</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.002000000000000372</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01200000000000223</v>
+        <v>0.289999999999992</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.04833333333333201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="14">
@@ -7914,6 +8530,15 @@
       <c r="C14" t="n">
         <v>5</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.3759999999999934</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -7927,31 +8552,58 @@
       <c r="C15" t="n">
         <v>5</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.1140000000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.949999999999989</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
+      <c r="D16" t="n">
+        <v>5.684341886080802e-15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>9.949999999999989</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.989999999999998</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
@@ -7964,7 +8616,16 @@
         <v>0.07999999999998408</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01599999999999682</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
@@ -7977,7 +8638,16 @@
         <v>0.0001199999999999951</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.399999999999902e-05</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1400000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="20">
@@ -7990,7 +8660,16 @@
         <v>-25.79999999999995</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-5.159999999999991</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="21">
@@ -8005,6 +8684,15 @@
       <c r="C21" t="n">
         <v>3</v>
       </c>
+      <c r="D21" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -8018,6 +8706,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
